--- a/热力地图/data/202008/8月意向表.xlsx
+++ b/热力地图/data/202008/8月意向表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\Tool\热力地图\data\202008\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D7904D-DFF1-47BA-B005-BC752296D7CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6726FF8-106F-43FB-AB3B-F38D17EB4C63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24495" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>数量</t>
   </si>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -666,6 +670,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
